--- a/Data Files/productlines.xlsx
+++ b/Data Files/productlines.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="18625"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="18730"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7530" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7530" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Intestazioni" sheetId="2" r:id="rId1"/>
@@ -485,45 +485,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -531,6 +492,45 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -848,8 +848,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{691B1468-146B-4A95-8450-CA0D71277E7E}">
   <dimension ref="A1:E6"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:A6"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -920,13 +920,13 @@
       <c r="A1" s="5">
         <v>83</v>
       </c>
-      <c r="B1" s="19" t="s">
+      <c r="B1" s="22" t="s">
         <v>25</v>
       </c>
-      <c r="C1" s="14"/>
-      <c r="D1" s="14"/>
-      <c r="E1" s="14"/>
-      <c r="F1" s="16" t="s">
+      <c r="C1" s="17"/>
+      <c r="D1" s="17"/>
+      <c r="E1" s="17"/>
+      <c r="F1" s="19" t="s">
         <v>16</v>
       </c>
     </row>
@@ -934,45 +934,45 @@
       <c r="A2" s="6">
         <v>84</v>
       </c>
-      <c r="B2" s="20"/>
-      <c r="C2" s="15"/>
-      <c r="D2" s="15"/>
-      <c r="E2" s="15"/>
-      <c r="F2" s="16"/>
+      <c r="B2" s="23"/>
+      <c r="C2" s="18"/>
+      <c r="D2" s="18"/>
+      <c r="E2" s="18"/>
+      <c r="F2" s="19"/>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A3" s="5">
         <v>92</v>
       </c>
-      <c r="B3" s="21" t="s">
+      <c r="B3" s="24" t="s">
         <v>26</v>
       </c>
-      <c r="C3" s="22"/>
-      <c r="D3" s="22"/>
-      <c r="E3" s="22"/>
-      <c r="F3" s="16"/>
+      <c r="C3" s="25"/>
+      <c r="D3" s="25"/>
+      <c r="E3" s="25"/>
+      <c r="F3" s="19"/>
     </row>
     <row r="4" spans="1:6" ht="12.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A4" s="7">
         <v>91</v>
       </c>
-      <c r="B4" s="23"/>
-      <c r="C4" s="18"/>
-      <c r="D4" s="18"/>
-      <c r="E4" s="18"/>
-      <c r="F4" s="17"/>
+      <c r="B4" s="26"/>
+      <c r="C4" s="21"/>
+      <c r="D4" s="21"/>
+      <c r="E4" s="21"/>
+      <c r="F4" s="20"/>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A5" s="8" t="s">
         <v>1</v>
       </c>
-      <c r="B5" s="24" t="s">
+      <c r="B5" s="27" t="s">
         <v>26</v>
       </c>
-      <c r="C5" s="25"/>
-      <c r="D5" s="25"/>
-      <c r="E5" s="25"/>
-      <c r="F5" s="26" t="s">
+      <c r="C5" s="28"/>
+      <c r="D5" s="28"/>
+      <c r="E5" s="28"/>
+      <c r="F5" s="29" t="s">
         <v>28</v>
       </c>
     </row>
@@ -980,45 +980,45 @@
       <c r="A6" s="9" t="s">
         <v>22</v>
       </c>
-      <c r="B6" s="20"/>
-      <c r="C6" s="15"/>
-      <c r="D6" s="15"/>
-      <c r="E6" s="15"/>
-      <c r="F6" s="16"/>
+      <c r="B6" s="23"/>
+      <c r="C6" s="18"/>
+      <c r="D6" s="18"/>
+      <c r="E6" s="18"/>
+      <c r="F6" s="19"/>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A7" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="B7" s="19" t="s">
+      <c r="B7" s="22" t="s">
         <v>26</v>
       </c>
-      <c r="C7" s="14"/>
-      <c r="D7" s="14"/>
-      <c r="E7" s="14"/>
-      <c r="F7" s="16"/>
+      <c r="C7" s="17"/>
+      <c r="D7" s="17"/>
+      <c r="E7" s="17"/>
+      <c r="F7" s="19"/>
     </row>
     <row r="8" spans="1:6" ht="12.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A8" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="B8" s="23"/>
-      <c r="C8" s="18"/>
-      <c r="D8" s="18"/>
-      <c r="E8" s="18"/>
-      <c r="F8" s="17"/>
+      <c r="B8" s="26"/>
+      <c r="C8" s="21"/>
+      <c r="D8" s="21"/>
+      <c r="E8" s="21"/>
+      <c r="F8" s="20"/>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A9" s="10" t="s">
         <v>23</v>
       </c>
-      <c r="B9" s="14" t="s">
+      <c r="B9" s="17" t="s">
         <v>26</v>
       </c>
-      <c r="C9" s="14"/>
-      <c r="D9" s="14"/>
-      <c r="E9" s="14"/>
-      <c r="F9" s="16" t="s">
+      <c r="C9" s="17"/>
+      <c r="D9" s="17"/>
+      <c r="E9" s="17"/>
+      <c r="F9" s="19" t="s">
         <v>29</v>
       </c>
     </row>
@@ -1026,33 +1026,33 @@
       <c r="A10" s="11" t="s">
         <v>24</v>
       </c>
-      <c r="B10" s="15"/>
-      <c r="C10" s="15"/>
-      <c r="D10" s="15"/>
-      <c r="E10" s="15"/>
-      <c r="F10" s="16"/>
+      <c r="B10" s="18"/>
+      <c r="C10" s="18"/>
+      <c r="D10" s="18"/>
+      <c r="E10" s="18"/>
+      <c r="F10" s="19"/>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A11" s="12" t="s">
         <v>30</v>
       </c>
-      <c r="B11" s="14" t="s">
+      <c r="B11" s="17" t="s">
         <v>26</v>
       </c>
-      <c r="C11" s="14"/>
-      <c r="D11" s="14"/>
-      <c r="E11" s="14"/>
-      <c r="F11" s="16"/>
+      <c r="C11" s="17"/>
+      <c r="D11" s="17"/>
+      <c r="E11" s="17"/>
+      <c r="F11" s="19"/>
     </row>
     <row r="12" spans="1:6" ht="12.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A12" s="13" t="s">
         <v>8</v>
       </c>
-      <c r="B12" s="18"/>
-      <c r="C12" s="18"/>
-      <c r="D12" s="18"/>
-      <c r="E12" s="18"/>
-      <c r="F12" s="17"/>
+      <c r="B12" s="21"/>
+      <c r="C12" s="21"/>
+      <c r="D12" s="21"/>
+      <c r="E12" s="21"/>
+      <c r="F12" s="20"/>
     </row>
   </sheetData>
   <mergeCells count="9">
@@ -1074,263 +1074,263 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B483CF8A-328E-4BBA-B0F0-B3D1DB29ACEC}">
   <dimension ref="A1:I10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="2.5703125" style="27" customWidth="1"/>
-    <col min="2" max="2" width="12" style="27" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="5" style="27" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14" style="27" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="23.28515625" style="27" customWidth="1"/>
-    <col min="6" max="6" width="22.5703125" style="27" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="20.28515625" style="27" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="21" style="27" bestFit="1" customWidth="1"/>
-    <col min="9" max="10" width="19.42578125" style="27" bestFit="1" customWidth="1"/>
-    <col min="11" max="16384" width="9.140625" style="27"/>
+    <col min="1" max="1" width="2.5703125" style="14" customWidth="1"/>
+    <col min="2" max="2" width="12" style="14" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="5" style="14" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="14" style="14" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="23.28515625" style="14" customWidth="1"/>
+    <col min="6" max="6" width="22.5703125" style="14" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="20.28515625" style="14" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="21" style="14" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="19.42578125" style="14" bestFit="1" customWidth="1"/>
+    <col min="11" max="16384" width="9.140625" style="14"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="24" x14ac:dyDescent="0.25">
-      <c r="A1" s="27">
+      <c r="A1" s="14">
         <v>83</v>
       </c>
-      <c r="B1" s="27" t="s">
+      <c r="B1" s="14" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="27" t="s">
+      <c r="C1" s="14" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="27" t="s">
+      <c r="D1" s="14" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="28" t="s">
+      <c r="E1" s="15" t="s">
         <v>64</v>
       </c>
-      <c r="F1" s="27" t="s">
+      <c r="F1" s="14" t="s">
         <v>9</v>
       </c>
-      <c r="G1" s="27" t="s">
+      <c r="G1" s="14" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="2" spans="1:9" ht="36" x14ac:dyDescent="0.25">
-      <c r="A2" s="27">
+      <c r="A2" s="14">
         <v>84</v>
       </c>
-      <c r="B2" s="27" t="s">
+      <c r="B2" s="14" t="s">
         <v>3</v>
       </c>
-      <c r="C2" s="27" t="s">
+      <c r="C2" s="14" t="s">
         <v>4</v>
       </c>
-      <c r="D2" s="27" t="s">
+      <c r="D2" s="14" t="s">
         <v>5</v>
       </c>
-      <c r="E2" s="28" t="s">
+      <c r="E2" s="15" t="s">
         <v>65</v>
       </c>
-      <c r="F2" s="27" t="s">
+      <c r="F2" s="14" t="s">
         <v>11</v>
       </c>
-      <c r="G2" s="27" t="s">
+      <c r="G2" s="14" t="s">
         <v>10</v>
       </c>
-      <c r="H2" s="27" t="s">
+      <c r="H2" s="14" t="s">
         <v>32</v>
       </c>
     </row>
     <row r="3" spans="1:9" ht="48" x14ac:dyDescent="0.25">
-      <c r="A3" s="27">
+      <c r="A3" s="14">
         <v>85</v>
       </c>
-      <c r="B3" s="27" t="s">
+      <c r="B3" s="14" t="s">
         <v>6</v>
       </c>
-      <c r="C3" s="27" t="s">
+      <c r="C3" s="14" t="s">
         <v>7</v>
       </c>
-      <c r="D3" s="27" t="s">
+      <c r="D3" s="14" t="s">
         <v>8</v>
       </c>
-      <c r="E3" s="29" t="s">
+      <c r="E3" s="16" t="s">
         <v>66</v>
       </c>
-      <c r="F3" s="27" t="s">
+      <c r="F3" s="14" t="s">
         <v>14</v>
       </c>
-      <c r="G3" s="27" t="s">
+      <c r="G3" s="14" t="s">
         <v>13</v>
       </c>
-      <c r="H3" s="27" t="s">
+      <c r="H3" s="14" t="s">
         <v>12</v>
       </c>
-      <c r="I3" s="27" t="s">
+      <c r="I3" s="14" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="4" spans="1:9" ht="48" x14ac:dyDescent="0.25">
-      <c r="A4" s="27">
+      <c r="A4" s="14">
         <v>86</v>
       </c>
-      <c r="B4" s="27" t="s">
+      <c r="B4" s="14" t="s">
         <v>33</v>
       </c>
-      <c r="C4" s="27" t="s">
+      <c r="C4" s="14" t="s">
         <v>34</v>
       </c>
-      <c r="D4" s="27" t="s">
+      <c r="D4" s="14" t="s">
         <v>33</v>
       </c>
-      <c r="E4" s="28" t="s">
+      <c r="E4" s="15" t="s">
         <v>61</v>
       </c>
-      <c r="F4" s="27" t="s">
+      <c r="F4" s="14" t="s">
         <v>35</v>
       </c>
-      <c r="G4" s="27" t="s">
+      <c r="G4" s="14" t="s">
         <v>36</v>
       </c>
-      <c r="H4" s="27" t="s">
+      <c r="H4" s="14" t="s">
         <v>37</v>
       </c>
-      <c r="I4" s="27" t="s">
+      <c r="I4" s="14" t="s">
         <v>38</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A5" s="27">
+      <c r="A5" s="14">
         <v>87</v>
       </c>
-      <c r="B5" s="27" t="s">
+      <c r="B5" s="14" t="s">
         <v>39</v>
       </c>
-      <c r="C5" s="27" t="s">
+      <c r="C5" s="14" t="s">
         <v>40</v>
       </c>
-      <c r="D5" s="27" t="s">
+      <c r="D5" s="14" t="s">
         <v>39</v>
       </c>
-      <c r="E5" s="28" t="s">
+      <c r="E5" s="15" t="s">
         <v>41</v>
       </c>
-      <c r="F5" s="27" t="s">
+      <c r="F5" s="14" t="s">
         <v>41</v>
       </c>
     </row>
     <row r="6" spans="1:9" ht="48" x14ac:dyDescent="0.25">
-      <c r="A6" s="27">
+      <c r="A6" s="14">
         <v>88</v>
       </c>
-      <c r="B6" s="27" t="s">
+      <c r="B6" s="14" t="s">
         <v>42</v>
       </c>
-      <c r="C6" s="27" t="s">
+      <c r="C6" s="14" t="s">
         <v>43</v>
       </c>
-      <c r="D6" s="27" t="s">
+      <c r="D6" s="14" t="s">
         <v>30</v>
       </c>
-      <c r="E6" s="28" t="s">
+      <c r="E6" s="15" t="s">
         <v>67</v>
       </c>
-      <c r="F6" s="27" t="s">
+      <c r="F6" s="14" t="s">
         <v>44</v>
       </c>
-      <c r="G6" s="27" t="s">
+      <c r="G6" s="14" t="s">
         <v>45</v>
       </c>
-      <c r="H6" s="27" t="s">
+      <c r="H6" s="14" t="s">
         <v>46</v>
       </c>
-      <c r="I6" s="27" t="s">
+      <c r="I6" s="14" t="s">
         <v>47</v>
       </c>
     </row>
     <row r="7" spans="1:9" ht="24" x14ac:dyDescent="0.25">
-      <c r="A7" s="27">
+      <c r="A7" s="14">
         <v>89</v>
       </c>
-      <c r="B7" s="27" t="s">
+      <c r="B7" s="14" t="s">
         <v>48</v>
       </c>
-      <c r="C7" s="27" t="s">
+      <c r="C7" s="14" t="s">
         <v>49</v>
       </c>
-      <c r="D7" s="27" t="s">
+      <c r="D7" s="14" t="s">
         <v>50</v>
       </c>
-      <c r="E7" s="28" t="s">
+      <c r="E7" s="15" t="s">
         <v>62</v>
       </c>
-      <c r="F7" s="27" t="s">
+      <c r="F7" s="14" t="s">
         <v>51</v>
       </c>
-      <c r="G7" s="27" t="s">
+      <c r="G7" s="14" t="s">
         <v>52</v>
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A8" s="27">
+      <c r="A8" s="14">
         <v>90</v>
       </c>
-      <c r="B8" s="27" t="s">
+      <c r="B8" s="14" t="s">
         <v>53</v>
       </c>
-      <c r="C8" s="27" t="s">
+      <c r="C8" s="14" t="s">
         <v>22</v>
       </c>
-      <c r="D8" s="27" t="s">
+      <c r="D8" s="14" t="s">
         <v>23</v>
       </c>
-      <c r="E8" s="27" t="s">
+      <c r="E8" s="14" t="s">
         <v>54</v>
       </c>
-      <c r="F8" s="27" t="s">
+      <c r="F8" s="14" t="s">
         <v>54</v>
       </c>
     </row>
     <row r="9" spans="1:9" ht="24" x14ac:dyDescent="0.25">
-      <c r="A9" s="27">
+      <c r="A9" s="14">
         <v>91</v>
       </c>
-      <c r="B9" s="27" t="s">
+      <c r="B9" s="14" t="s">
         <v>55</v>
       </c>
-      <c r="C9" s="27" t="s">
+      <c r="C9" s="14" t="s">
         <v>56</v>
       </c>
-      <c r="D9" s="27" t="s">
+      <c r="D9" s="14" t="s">
         <v>55</v>
       </c>
-      <c r="E9" s="28" t="s">
+      <c r="E9" s="15" t="s">
         <v>63</v>
       </c>
-      <c r="F9" s="27" t="s">
+      <c r="F9" s="14" t="s">
         <v>57</v>
       </c>
-      <c r="G9" s="27" t="s">
+      <c r="G9" s="14" t="s">
         <v>58</v>
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A10" s="27">
+      <c r="A10" s="14">
         <v>92</v>
       </c>
-      <c r="B10" s="27" t="s">
+      <c r="B10" s="14" t="s">
         <v>59</v>
       </c>
-      <c r="C10" s="27" t="s">
+      <c r="C10" s="14" t="s">
         <v>27</v>
       </c>
-      <c r="D10" s="27" t="s">
+      <c r="D10" s="14" t="s">
         <v>24</v>
       </c>
-      <c r="E10" s="27" t="s">
+      <c r="E10" s="14" t="s">
         <v>60</v>
       </c>
-      <c r="F10" s="27" t="s">
+      <c r="F10" s="14" t="s">
         <v>60</v>
       </c>
     </row>
